--- a/exp_notes.xlsx
+++ b/exp_notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <r>
       <rPr>
@@ -38,6 +38,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">实验记录</t>
     </r>
@@ -58,7 +59,7 @@
     <t xml:space="preserve">模型名称</t>
   </si>
   <si>
-    <t xml:space="preserve">网络结构</t>
+    <t xml:space="preserve">Clip</t>
   </si>
   <si>
     <t xml:space="preserve">Loss</t>
@@ -100,7 +101,122 @@
     <t xml:space="preserve">1-3</t>
   </si>
   <si>
-    <t xml:space="preserve">MSE+CE, size_average=True</t>
+    <t xml:space="preserve">MSE+CE+kl, size_average=False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4 -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-4 -3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KL-seq*batch*512, Cons/Stroke-1*batch*2/3, almost 5000 times!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSE+CE+kl, size_average=True</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">lr=0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">会飞</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1-5 KL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，改成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mean</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calc h,c of decoder from sampled z </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bidirectional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cons: 0.16, stroke: 0.022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no difference from 1-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detach sample from decoder input</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cons: 0.3, stroke:0.24</t>
   </si>
 </sst>
 </file>
@@ -111,7 +227,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,21 +261,34 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +325,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,7 +334,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,23 +342,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -242,6 +367,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -250,22 +435,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:6"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.015306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8367346938776"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.83673469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -333,67 +518,192 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>43299</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="5" t="n">
         <v>50000</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="5" t="n">
         <v>128</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="5" t="n">
         <v>0.0001</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>43300</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="5" t="n">
         <v>100000</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="5" t="n">
         <v>512</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="5" t="n">
         <v>0.0001</v>
       </c>
-      <c r="AMJ5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="7" t="n">
         <v>43301</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>512</v>
+      </c>
       <c r="L6" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="n">
+        <v>43303</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>200000</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>0.001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>43304</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="F9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="F11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="n">
+        <v>43306</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>43307</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>43308</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/exp_notes.xlsx
+++ b/exp_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <r>
       <rPr>
@@ -217,6 +217,21 @@
   </si>
   <si>
     <t xml:space="preserve">Cons: 0.3, stroke:0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32sktech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cons: 0.021, kl: 0.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include the ending (0,0)</t>
   </si>
 </sst>
 </file>
@@ -435,22 +450,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5663265306122"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,6 +719,37 @@
         <v>38</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>43318</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>30000</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="7" t="n">
+        <v>43319</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exp_notes.xlsx
+++ b/exp_notes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <r>
       <rPr>
@@ -232,6 +232,51 @@
   </si>
   <si>
     <t xml:space="preserve">include the ending (0,0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cons: , kl: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10*first point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*first point 0.2*kl_loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cons: 0.009 , kl: 0.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2*first point 0.2*cons_loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cons: 0.052 , kl: 0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cons:0.022, kl:0.053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda_loc=2, Lambda_kl=0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cons:0.016 , kl:0.06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambda_loc=1, Lambda_kl=0.3</t>
   </si>
 </sst>
 </file>
@@ -450,20 +495,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3010204081633"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,6 +796,79 @@
       <c r="C23" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="J23" s="0" t="n">
+        <v>40000</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7" t="n">
+        <v>43320</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>43321</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>43321</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/exp_notes.xlsx
+++ b/exp_notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -56,7 +56,7 @@
     <t xml:space="preserve">目的</t>
   </si>
   <si>
-    <t xml:space="preserve">模型名称</t>
+    <t xml:space="preserve">Lambda</t>
   </si>
   <si>
     <t xml:space="preserve">Clip</t>
@@ -264,19 +264,58 @@
     <t xml:space="preserve">2-6</t>
   </si>
   <si>
+    <t xml:space="preserve">loc=2, kl=0.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cons:0.022, kl:0.053</t>
   </si>
   <si>
-    <t xml:space="preserve">Lambda_loc=2, Lambda_kl=0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">2-7</t>
   </si>
   <si>
+    <t xml:space="preserve">loc=1, kl=0.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cons:0.016 , kl:0.06 </t>
   </si>
   <si>
-    <t xml:space="preserve">Lambda_loc=1, Lambda_kl=0.3</t>
+    <t xml:space="preserve">3-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug when concate sketchInput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loc=0.1,kl=0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eof=0.1, kl=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kl=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recons_High, KL_High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[40000, 55000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kl=0.01</t>
   </si>
 </sst>
 </file>
@@ -495,20 +534,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M36" activeCellId="0" sqref="M36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0612244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3010204081633"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.44387755102041"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.4234693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
   </cols>
@@ -773,6 +814,9 @@
       <c r="B22" s="7" t="n">
         <v>43318</v>
       </c>
+      <c r="F22" s="0" t="n">
+        <v>0.1</v>
+      </c>
       <c r="I22" s="0" t="s">
         <v>40</v>
       </c>
@@ -849,13 +893,16 @@
       <c r="A27" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="B27" s="7" t="n">
+        <v>43321</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>54</v>
+      </c>
       <c r="K27" s="0" t="n">
         <v>256</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="N27" s="0" t="s">
         <v>55</v>
       </c>
     </row>
@@ -863,11 +910,72 @@
       <c r="A28" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="B28" s="7" t="n">
+        <v>43321</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>57</v>
+      </c>
       <c r="M28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N28" s="0" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="7" t="n">
+        <v>43322</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/exp_notes.xlsx
+++ b/exp_notes.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -309,13 +309,46 @@
     <t xml:space="preserve">Recons_High, KL_High</t>
   </si>
   <si>
-    <t xml:space="preserve">[40000, 55000]</t>
+    <t xml:space="preserve">0.001x0.2[40000, 55000]</t>
   </si>
   <si>
     <t xml:space="preserve">3-5</t>
   </si>
   <si>
     <t xml:space="preserve">Kl=0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01x0.2[50000, 70000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lr=0.01 too big, explode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change lr=0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kl=0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-8_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kl=0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001[60000,65000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-1</t>
   </si>
 </sst>
 </file>
@@ -534,24 +567,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.8928571428571"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.44387755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,8 +996,14 @@
       <c r="G33" s="0" t="s">
         <v>68</v>
       </c>
+      <c r="I33" s="0" t="n">
+        <v>32</v>
+      </c>
       <c r="J33" s="0" t="n">
         <v>60000</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>256</v>
       </c>
       <c r="L33" s="0" t="s">
         <v>69</v>
@@ -974,7 +1013,77 @@
       <c r="A34" s="0" t="s">
         <v>70</v>
       </c>
+      <c r="B34" s="7" t="n">
+        <v>43322</v>
+      </c>
       <c r="E34" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>80000</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>60000</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>71</v>
       </c>
     </row>
